--- a/CKA+Exam+Tracker.xlsx
+++ b/CKA+Exam+Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishesrivasta6\Desktop\CKA Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhishesrivasta6\Desktop\CKA Exam\CKA-Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2017C91-83D6-4419-9491-F3EBAC06531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED62EB6-DB54-42B0-BFFF-48841E101C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B4B26FAB-A092-4670-BE7F-8F35F9E546E1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CKA Exam Tracker'!$E$58:$E$59</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>Kubernetes Architecture</t>
   </si>
@@ -828,9 +828,9 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i/>
-        <color rgb="FFD9376B"/>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -849,9 +849,9 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFD9376B"/>
       </font>
     </dxf>
     <dxf>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0ED555-2662-4A28-AC29-AEF5DB6F3713}">
   <dimension ref="C1:P59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="21.5"/>
@@ -1309,7 +1309,9 @@
       <c r="M5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="3:16">
       <c r="D6" s="12">
@@ -1335,7 +1337,9 @@
       <c r="M6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="8"/>
+      <c r="N6" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="3:16">
       <c r="D7" s="12">
@@ -1361,7 +1365,9 @@
       <c r="M7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="3:16">
       <c r="D8" s="12">
@@ -1387,7 +1393,9 @@
       <c r="M8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="3:16">
       <c r="D9" s="12">
@@ -1413,7 +1421,9 @@
       <c r="M9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="3:16">
       <c r="D10" s="12">
@@ -1439,7 +1449,9 @@
       <c r="M10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="3:16">
       <c r="D11" s="12">
@@ -1465,7 +1477,9 @@
       <c r="M11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="3:16">
       <c r="D12" s="12">
@@ -1491,7 +1505,9 @@
       <c r="M12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="3:16">
       <c r="D13" s="12">
@@ -1517,7 +1533,9 @@
       <c r="M13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="3:16" ht="21.65" customHeight="1">
       <c r="D14" s="12">
@@ -1532,7 +1550,9 @@
       <c r="G14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="12">
         <v>28</v>
       </c>
@@ -1545,7 +1565,9 @@
       <c r="M14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="3:16">
       <c r="D15" s="12">
@@ -1558,7 +1580,9 @@
       <c r="G15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="12">
         <v>29</v>
       </c>
@@ -1569,7 +1593,9 @@
       <c r="M15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="3:16">
       <c r="D16" s="12">
@@ -1582,7 +1608,9 @@
       <c r="G16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="12">
         <v>30</v>
       </c>
@@ -1593,7 +1621,9 @@
       <c r="M16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="4:14">
       <c r="D17" s="12">
@@ -1606,7 +1636,9 @@
       <c r="G17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="12">
         <v>31</v>
       </c>
@@ -1617,7 +1649,9 @@
       <c r="M17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="4:14">
       <c r="D18" s="12">
@@ -1630,7 +1664,9 @@
       <c r="G18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="12">
         <v>32</v>
       </c>
@@ -1641,7 +1677,9 @@
       <c r="M18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="4:14">
       <c r="D19" s="12">
@@ -1654,7 +1692,9 @@
       <c r="G19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="12">
         <v>33</v>
       </c>
@@ -1665,7 +1705,9 @@
       <c r="M19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="4:14">
       <c r="D20" s="12">
@@ -1678,7 +1720,9 @@
       <c r="G20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="12">
         <v>34</v>
       </c>
@@ -1689,7 +1733,9 @@
       <c r="M20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="4:14">
       <c r="D21" s="12">
@@ -1702,7 +1748,9 @@
       <c r="G21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="12">
         <v>35</v>
       </c>
@@ -1713,7 +1761,9 @@
       <c r="M21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="4:14" ht="21.65" customHeight="1">
       <c r="D22" s="12">
@@ -1726,7 +1776,9 @@
       <c r="G22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="12">
         <v>36</v>
       </c>
@@ -1739,7 +1791,9 @@
       <c r="M22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="4:14">
       <c r="D23" s="41"/>
@@ -1757,7 +1811,9 @@
       <c r="M23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="4:14">
       <c r="D24" s="44"/>
@@ -1775,7 +1831,9 @@
       <c r="M24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="4:14">
       <c r="D25" s="44"/>
@@ -1793,7 +1851,9 @@
       <c r="M25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="8"/>
+      <c r="N25" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="4:14">
       <c r="D26" s="44"/>
@@ -1811,7 +1871,9 @@
       <c r="M26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="4:14">
       <c r="D27" s="44"/>
@@ -1900,30 +1962,30 @@
     <mergeCell ref="K14:K21"/>
     <mergeCell ref="D23:H28"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5:N28 H5:H22">
-    <cfRule type="containsText" dxfId="2" priority="84" operator="containsText" text="Done">
+  <conditionalFormatting sqref="H5:H22 N5:N28">
+    <cfRule type="containsText" dxfId="8" priority="84" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="85" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="7" priority="85" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="86" operator="containsText" text="Yet to Start">
+    <cfRule type="containsText" dxfId="6" priority="86" operator="containsText" text="Yet to Start">
       <formula>NOT(ISERROR(SEARCH("Yet to Start",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="8" priority="61" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="5" priority="61" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="62" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="4" priority="62" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="63" operator="containsText" text="Yet to Start">
+    <cfRule type="containsText" dxfId="3" priority="63" operator="containsText" text="Yet to Start">
       <formula>NOT(ISERROR(SEARCH("Yet to Start",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 N5:N28 H5:H22" xr:uid="{B9F6219B-6663-484B-AEA7-07953E828119}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29 H5:H22 N5:N28" xr:uid="{B9F6219B-6663-484B-AEA7-07953E828119}">
       <formula1>$E$51:$E$53</formula1>
     </dataValidation>
   </dataValidations>
